--- a/data/trans_dic/P37A$vacunaempresa-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.00116052096373329</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02291109502279685</v>
+        <v>0.02291109502279686</v>
       </c>
     </row>
     <row r="5">
@@ -708,14 +708,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001805477475290259</v>
+        <v>0.001820213475255785</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005049622109967561</v>
+        <v>0.004611757714674089</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.002934808444918226</v>
+        <v>0.002972488447430154</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01576975275857221</v>
+        <v>0.01442199070902451</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0009869907180200305</v>
+        <v>0.0009885059880009475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003378442448468198</v>
+        <v>0.003387471461064245</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01158038513739317</v>
+        <v>0.01165160899856872</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01572584641683852</v>
+        <v>0.01696468185615485</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03188870670701623</v>
+        <v>0.03203443816392659</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.04016884346251787</v>
+        <v>0.03565080878502543</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01107701002883538</v>
+        <v>0.009596879121549655</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01244751589651426</v>
+        <v>0.01163209890207644</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.009702467071868432</v>
+        <v>0.01196287175002617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06401265075540738</v>
+        <v>0.06622031927214597</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01005721243824596</v>
+        <v>0.009917201633499809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01798586141921123</v>
+        <v>0.01825859841388518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.006221832694586693</v>
+        <v>0.005817232778206136</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03990383539259416</v>
+        <v>0.0413861143174757</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006279484540127619</v>
+        <v>0.006325410273312995</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006865990444796443</v>
+        <v>0.006928876738993074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003461555493066433</v>
+        <v>0.00339808624596959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01024618947278797</v>
+        <v>0.008265760457176205</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004903918351406585</v>
+        <v>0.005094776613565983</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008171283230404605</v>
+        <v>0.007915433147744661</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001493918858595838</v>
+        <v>0.001502170597748788</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02305887262162121</v>
+        <v>0.02310987591592873</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007376960281393899</v>
+        <v>0.007259630852405695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009498242862931388</v>
+        <v>0.009092179523737531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003453572665461694</v>
+        <v>0.003999825145727029</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01920130100106245</v>
+        <v>0.02002082556225346</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02389179474899441</v>
+        <v>0.02416471173735051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0236186178584361</v>
+        <v>0.02543521041831574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02156743100830413</v>
+        <v>0.02029248562179722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04472267431260851</v>
+        <v>0.04345519430735528</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02290731107212412</v>
+        <v>0.02523367697638945</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03131160558461055</v>
+        <v>0.03026277217768179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01480082178538888</v>
+        <v>0.01442787304926371</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06363570698899894</v>
+        <v>0.06145072869377205</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0199990712281732</v>
+        <v>0.01983512497488872</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02336079438800203</v>
+        <v>0.02294336519989378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01368003266952948</v>
+        <v>0.01354315928461869</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04473591836565535</v>
+        <v>0.04452988828792268</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.007510245081618168</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03757885629353417</v>
+        <v>0.03757885629353416</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01098334870851389</v>
+        <v>0.01112068513369742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01233628621392064</v>
+        <v>0.01107174635031227</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02427191553184663</v>
+        <v>0.02478305821477369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004104056271972283</v>
+        <v>0.004146722306005968</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.009461684462570594</v>
+        <v>0.00905390960684087</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005452489541033164</v>
+        <v>0.005573927720075213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02507480134603862</v>
+        <v>0.02619471441555849</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008640022429808178</v>
+        <v>0.008455190185005141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01271469374961249</v>
+        <v>0.01259508997819061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004069195178641416</v>
+        <v>0.003932009644589563</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02767611212735854</v>
+        <v>0.02850803364041794</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03626873897617191</v>
+        <v>0.03525587741720969</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03517479235287675</v>
+        <v>0.03333502168480112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01027845653577452</v>
+        <v>0.01088059895558842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05588992159212382</v>
+        <v>0.0592526951405001</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01716487987381433</v>
+        <v>0.01731692489863429</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03331134173277164</v>
+        <v>0.03172578899158778</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02381940833737058</v>
+        <v>0.02435456416615379</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05157824675058263</v>
+        <v>0.05200784343613661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02226129982126461</v>
+        <v>0.02234586206779349</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02899216532697423</v>
+        <v>0.02783963601360319</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01421473744376401</v>
+        <v>0.01402550001121579</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04770231112932093</v>
+        <v>0.04853886727044966</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.006021647406901848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04915626704570171</v>
+        <v>0.0491562670457017</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0.007821086169699155</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04984731222540778</v>
+        <v>0.04984731222540777</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.00664048127166154</v>
@@ -1101,7 +1101,7 @@
         <v>0.006923470775455407</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04951050741123372</v>
+        <v>0.04951050741123373</v>
       </c>
     </row>
     <row r="14">
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005728365829272745</v>
+        <v>0.005514842300983498</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006936616725348903</v>
+        <v>0.008597678522643946</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001561679962279224</v>
+        <v>0.001553736324794001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03359555718105164</v>
+        <v>0.03467493810316403</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.003126428978017947</v>
+        <v>0.001837932417601581</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001675728639429525</v>
+        <v>0.001677722666569699</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03804417009374021</v>
+        <v>0.03749579326598902</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00293552234234666</v>
+        <v>0.002949572484329592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007525040550189676</v>
+        <v>0.007488821363582082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003038985432854007</v>
+        <v>0.002968191059543434</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04007579811087042</v>
+        <v>0.03959137166797145</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02777814089847331</v>
+        <v>0.0261520972710286</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03296504982142259</v>
+        <v>0.03683621350655689</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01885554855538349</v>
+        <v>0.01779336702854737</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06746390760349259</v>
+        <v>0.06683704696484882</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.02184499587232856</v>
+        <v>0.02137937790486956</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02128450748570417</v>
+        <v>0.01999022202221465</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06394470090051217</v>
+        <v>0.06327987556118421</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01375151537428855</v>
+        <v>0.01302687687611912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02372272442070315</v>
+        <v>0.02286353575944709</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01399878688354619</v>
+        <v>0.01426074326690228</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0617486876529195</v>
+        <v>0.06005212478298375</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.004555428509182222</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03654314718408097</v>
+        <v>0.03654314718408098</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.007013291780735225</v>
@@ -1244,19 +1244,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002184287504139897</v>
+        <v>0.002165224450887116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002553440575787483</v>
+        <v>0.00255363199350574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002202603635344783</v>
+        <v>0.002195812339879445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01712310263324116</v>
+        <v>0.01716062255227852</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00227492716069744</v>
+        <v>0.00228593642302726</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0258633009591077</v>
+        <v>0.0262169116821791</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002405223764981468</v>
+        <v>0.002356166084642364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002418026210028894</v>
+        <v>0.002425339382166972</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002216712130497533</v>
+        <v>0.002199402715877162</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02491191853120593</v>
+        <v>0.02471843275753689</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01890084380777124</v>
+        <v>0.01860435295146654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03191442505050607</v>
+        <v>0.03221028120186846</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02245339789357477</v>
+        <v>0.02450401430213745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04361234654243846</v>
+        <v>0.04324389058112005</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01889012032306408</v>
+        <v>0.01893910233063955</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01305413552560693</v>
+        <v>0.01196159168102674</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01604239686804607</v>
+        <v>0.01375187310661729</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04995837130933756</v>
+        <v>0.0511176718173989</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01403346566437312</v>
+        <v>0.01424460438408711</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01687474577990385</v>
+        <v>0.01684994928011993</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01413196429854806</v>
+        <v>0.01437072016417402</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04122555294578571</v>
+        <v>0.04158996382220741</v>
       </c>
     </row>
     <row r="19">
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.008901733991903596</v>
+        <v>0.008901733991903594</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.002616112902643633</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.005726064460083809</v>
+        <v>0.00572606446008381</v>
       </c>
     </row>
     <row r="20">
@@ -1383,7 +1383,7 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.002976455943713272</v>
+        <v>0.003020500309191871</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.002558944415464521</v>
+        <v>0.00241538201687655</v>
       </c>
     </row>
     <row r="21">
@@ -1417,27 +1417,27 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01982427210575463</v>
+        <v>0.01838553594359785</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01437830717825607</v>
+        <v>0.01764006166460129</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01706712052182952</v>
+        <v>0.01368657415218757</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.008510486518375816</v>
+        <v>0.009795529318425788</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.007053309128960881</v>
+        <v>0.007080462090540696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.007396468104831974</v>
+        <v>0.008288483719749022</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.01210962816638318</v>
+        <v>0.01155362997402614</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0051149964924228</v>
+        <v>0.005114996492422799</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.003067179614699723</v>
+        <v>0.003067179614699722</v>
       </c>
     </row>
     <row r="23">
@@ -1503,13 +1503,13 @@
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.001159986459029534</v>
+        <v>0.001168555904301594</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="inlineStr"/>
       <c r="N23" s="5" t="n">
-        <v>0.0006989111576300587</v>
+        <v>0.0006930907220837127</v>
       </c>
     </row>
     <row r="24">
@@ -1527,13 +1527,13 @@
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.01439610365128696</v>
+        <v>0.0155523355691773</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="n">
-        <v>0.009320135309195749</v>
+        <v>0.008675999182463864</v>
       </c>
     </row>
     <row r="25">
@@ -1569,7 +1569,7 @@
         <v>0.005387293328426142</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.03141639788085809</v>
+        <v>0.03141639788085808</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.007924019240694658</v>
@@ -1592,40 +1592,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009479855658274515</v>
+        <v>0.01017612477686063</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002581546606531243</v>
+        <v>0.00257274394981068</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02182617622833618</v>
+        <v>0.02089193858226295</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.00552113992140069</v>
+        <v>0.005820480003748772</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.003212616409709543</v>
+        <v>0.003116080800937214</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0264766652214271</v>
+        <v>0.02630419478267618</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.008647745335796573</v>
+        <v>0.008733587091005673</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.003519637720701419</v>
+        <v>0.003460635128840184</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0254306509351778</v>
+        <v>0.0254451684868279</v>
       </c>
     </row>
     <row r="27">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01859677746036958</v>
+        <v>0.01826781225649443</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.007541432091562444</v>
+        <v>0.007808563648557921</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03299166697430309</v>
+        <v>0.03253311690448223</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01286259987360573</v>
+        <v>0.01234640272933877</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.008438519214439343</v>
+        <v>0.008551481469107731</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03673404802342851</v>
+        <v>0.03633725390636475</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01395245868321009</v>
+        <v>0.01392751101228239</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.007106151588935737</v>
+        <v>0.006941142515357008</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03298286601964585</v>
+        <v>0.03352493330990992</v>
       </c>
     </row>
     <row r="28">
@@ -1943,14 +1943,14 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2293</v>
+        <v>2094</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1962,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5717</v>
+        <v>5228</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2988</v>
+        <v>2996</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8920</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="7">
@@ -1985,38 +1985,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7770</v>
+        <v>8382</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14482</v>
+        <v>14548</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>16381</v>
+        <v>14538</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5178</v>
+        <v>4486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5355</v>
+        <v>5004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>3840</v>
+        <v>4734</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23205</v>
+        <v>24006</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9671</v>
+        <v>9536</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15906</v>
+        <v>16147</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5072</v>
+        <v>4742</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30738</v>
+        <v>31880</v>
       </c>
     </row>
     <row r="8">
@@ -2119,40 +2119,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4618</v>
+        <v>4652</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4718</v>
+        <v>4761</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2044</v>
+        <v>2007</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4886</v>
+        <v>3942</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3067</v>
+        <v>3187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4987</v>
+        <v>4830</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11569</v>
+        <v>11595</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10040</v>
+        <v>9880</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12322</v>
+        <v>11796</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3986</v>
+        <v>4616</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18791</v>
+        <v>19593</v>
       </c>
     </row>
     <row r="11">
@@ -2163,40 +2163,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17572</v>
+        <v>17773</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16228</v>
+        <v>17476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12735</v>
+        <v>11983</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21328</v>
+        <v>20723</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14328</v>
+        <v>15784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19108</v>
+        <v>18468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8341</v>
+        <v>8131</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31928</v>
+        <v>30832</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27218</v>
+        <v>26995</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>30307</v>
+        <v>29765</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15787</v>
+        <v>15629</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43780</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="12">
@@ -2299,40 +2299,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7015</v>
+        <v>7102</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8412</v>
+        <v>7549</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15069</v>
+        <v>15386</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2831</v>
+        <v>2860</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6726</v>
+        <v>6436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3606</v>
+        <v>3687</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15626</v>
+        <v>16324</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11478</v>
+        <v>11232</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17708</v>
+        <v>17541</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5414</v>
+        <v>5231</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>34430</v>
+        <v>35465</v>
       </c>
     </row>
     <row r="15">
@@ -2343,40 +2343,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23164</v>
+        <v>22517</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23984</v>
+        <v>22730</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6877</v>
+        <v>7280</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34699</v>
+        <v>36786</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11839</v>
+        <v>11944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23679</v>
+        <v>22552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15754</v>
+        <v>16108</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32143</v>
+        <v>32411</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29572</v>
+        <v>29685</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40378</v>
+        <v>38773</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18912</v>
+        <v>18661</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>59343</v>
+        <v>60384</v>
       </c>
     </row>
     <row r="16">
@@ -2479,38 +2479,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2974</v>
+        <v>2863</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4263</v>
+        <v>5284</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23538</v>
+        <v>24294</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1927</v>
+        <v>1133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28034</v>
+        <v>27630</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3038</v>
+        <v>3052</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9262</v>
+        <v>9217</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3936</v>
+        <v>3844</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57609</v>
+        <v>56913</v>
       </c>
     </row>
     <row r="19">
@@ -2521,38 +2521,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14421</v>
+        <v>13577</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20261</v>
+        <v>22640</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12182</v>
+        <v>11495</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47266</v>
+        <v>46827</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>13461</v>
+        <v>13174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13815</v>
+        <v>12975</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47120</v>
+        <v>46630</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14230</v>
+        <v>13480</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29198</v>
+        <v>28141</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>18130</v>
+        <v>18469</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>88764</v>
+        <v>86325</v>
       </c>
     </row>
     <row r="20">
@@ -2655,19 +2655,19 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1097</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10434</v>
+        <v>10457</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>15747</v>
+        <v>15962</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1902</v>
+        <v>1863</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2161</v>
+        <v>2144</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>30348</v>
+        <v>30112</v>
       </c>
     </row>
     <row r="23">
@@ -2699,40 +2699,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7309</v>
+        <v>7194</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13705</v>
+        <v>13832</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10731</v>
+        <v>11711</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26575</v>
+        <v>26350</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7631</v>
+        <v>7651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5846</v>
+        <v>5356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7971</v>
+        <v>6833</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>30417</v>
+        <v>31123</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11096</v>
+        <v>11263</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14803</v>
+        <v>14781</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13775</v>
+        <v>14008</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>50221</v>
+        <v>50665</v>
       </c>
     </row>
     <row r="24">
@@ -2838,7 +2838,7 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>2165</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="27">
@@ -2872,27 +2872,27 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>8070</v>
+        <v>7484</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4931</v>
+        <v>6049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6042</v>
+        <v>4845</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>3738</v>
+        <v>4302</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4482</v>
+        <v>4500</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>4910</v>
+        <v>5502</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>10248</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="28">
@@ -3002,13 +3002,13 @@
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="inlineStr"/>
       <c r="M30" s="6" t="inlineStr"/>
       <c r="N30" s="6" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31">
@@ -3026,13 +3026,13 @@
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>6689</v>
+        <v>7226</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="inlineStr"/>
       <c r="N31" s="6" t="n">
-        <v>7221</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="32">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>32485</v>
+        <v>34871</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8763</v>
+        <v>8733</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>77107</v>
+        <v>73806</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19646</v>
+        <v>20711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>11387</v>
+        <v>11045</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>98942</v>
+        <v>98298</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>60405</v>
+        <v>61005</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>24422</v>
+        <v>24013</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>184874</v>
+        <v>184979</v>
       </c>
     </row>
     <row r="35">
@@ -3179,40 +3179,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>63727</v>
+        <v>62600</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25598</v>
+        <v>26505</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>116552</v>
+        <v>114932</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>45769</v>
+        <v>43932</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>29911</v>
+        <v>30311</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>137273</v>
+        <v>135791</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>97459</v>
+        <v>97285</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>49309</v>
+        <v>48164</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>239776</v>
+        <v>243717</v>
       </c>
     </row>
     <row r="36">
